--- a/dashboard/backend/Downloads/Sorted Projects/Sorted_Groups.xlsx
+++ b/dashboard/backend/Downloads/Sorted Projects/Sorted_Groups.xlsx
@@ -658,7 +658,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>{'EID083', 'EID070', 'EID081', 'EID038'}</t>
+          <t>{'EID038', 'EID070', 'EID081', 'EID083'}</t>
         </is>
       </c>
       <c r="E2" t="n">
@@ -859,7 +859,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>{'EID054', 'EID022', 'EID029', 'EID082'}</t>
+          <t>{'EID082', 'EID029', 'EID022', 'EID054'}</t>
         </is>
       </c>
       <c r="E3" t="n">
@@ -1060,7 +1060,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>{'EID049', 'EID068', 'EID050', 'EID088'}</t>
+          <t>{'EID088', 'EID049', 'EID068', 'EID050'}</t>
         </is>
       </c>
       <c r="E4" t="n">
@@ -1261,7 +1261,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>{'EID086', 'EID047', 'EID028', 'EID018'}</t>
+          <t>{'EID047', 'EID028', 'EID018', 'EID086'}</t>
         </is>
       </c>
       <c r="E5" t="n">
@@ -1462,7 +1462,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>{'EID089', 'EID042', 'EID074', 'EID031'}</t>
+          <t>{'EID074', 'EID031', 'EID042', 'EID089'}</t>
         </is>
       </c>
       <c r="E6" t="n">
@@ -1663,7 +1663,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>{'EID093', 'EID091', 'EID010', 'EID030'}</t>
+          <t>{'EID010', 'EID093', 'EID091', 'EID030'}</t>
         </is>
       </c>
       <c r="E7" t="n">
@@ -1864,7 +1864,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>{'EID045', 'EID061', 'EID007', 'EID075'}</t>
+          <t>{'EID075', 'EID061', 'EID007', 'EID045'}</t>
         </is>
       </c>
       <c r="E8" t="n">
@@ -1872,7 +1872,7 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>3.43</t>
+          <t>3.42</t>
         </is>
       </c>
       <c r="G8" t="n">
@@ -2065,7 +2065,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>{'EID066', 'EID016', 'EID059', 'EID069'}</t>
+          <t>{'EID016', 'EID066', 'EID059', 'EID069'}</t>
         </is>
       </c>
       <c r="E9" t="n">
@@ -2266,7 +2266,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>{'EID057', 'EID079', 'EID053', 'EID048'}</t>
+          <t>{'EID079', 'EID053', 'EID057', 'EID048'}</t>
         </is>
       </c>
       <c r="E10" t="n">
@@ -2467,7 +2467,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>{'EID046', 'EID043', 'EID040', 'EID008'}</t>
+          <t>{'EID046', 'EID040', 'EID043', 'EID008'}</t>
         </is>
       </c>
       <c r="E11" t="n">
@@ -2668,7 +2668,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>{'EID102', 'EID039', 'EID060', 'EID097'}</t>
+          <t>{'EID060', 'EID039', 'EID097', 'EID102'}</t>
         </is>
       </c>
       <c r="E12" t="n">
@@ -2869,7 +2869,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>{'EID034', 'EID014', 'EID026', 'EID104'}</t>
+          <t>{'EID034', 'EID014', 'EID104', 'EID026'}</t>
         </is>
       </c>
       <c r="E13" t="n">
@@ -3271,7 +3271,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>{'EID011', 'EID099', 'EID009', 'EID056'}</t>
+          <t>{'EID056', 'EID099', 'EID011', 'EID009'}</t>
         </is>
       </c>
       <c r="E15" t="n">
@@ -3472,7 +3472,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>{'EID085', 'EID103', 'EID092', 'EID076'}</t>
+          <t>{'EID076', 'EID103', 'EID085', 'EID092'}</t>
         </is>
       </c>
       <c r="E16" t="n">
@@ -3673,7 +3673,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>{'EID080', 'EID005', 'EID036', 'EID077'}</t>
+          <t>{'EID005', 'EID077', 'EID036', 'EID080'}</t>
         </is>
       </c>
       <c r="E17" t="n">
@@ -3874,7 +3874,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>{'EID094', 'EID003', 'EID044', 'EID096'}</t>
+          <t>{'EID044', 'EID096', 'EID003', 'EID094'}</t>
         </is>
       </c>
       <c r="E18" t="n">
@@ -4075,7 +4075,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>{'EID051', 'EID019', 'EID078', 'EID055'}</t>
+          <t>{'EID078', 'EID051', 'EID055', 'EID019'}</t>
         </is>
       </c>
       <c r="E19" t="n">
@@ -4276,7 +4276,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>{'EID027', 'EID073', 'EID052', 'EID101'}</t>
+          <t>{'EID052', 'EID101', 'EID027', 'EID073'}</t>
         </is>
       </c>
       <c r="E20" t="n">
@@ -4284,7 +4284,7 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>3.39</t>
+          <t>3.38</t>
         </is>
       </c>
       <c r="G20" t="n">
@@ -4477,7 +4477,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>{'EID090', 'EID100', 'EID071', 'EID062'}</t>
+          <t>{'EID071', 'EID062', 'EID090', 'EID100'}</t>
         </is>
       </c>
       <c r="E21" t="n">
@@ -4678,7 +4678,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>{'EID025', 'EID012', 'EID063', 'EID065'}</t>
+          <t>{'EID063', 'EID025', 'EID012', 'EID065'}</t>
         </is>
       </c>
       <c r="E22" t="n">
@@ -4879,7 +4879,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>{'EID015', 'EID001', 'EID033', 'EID098'}</t>
+          <t>{'EID001', 'EID015', 'EID098', 'EID033'}</t>
         </is>
       </c>
       <c r="E23" t="n">
@@ -5080,7 +5080,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>{'EID072', 'EID037', 'EID032', 'EID067'}</t>
+          <t>{'EID072', 'EID032', 'EID067', 'EID037'}</t>
         </is>
       </c>
       <c r="E24" t="n">
@@ -5088,7 +5088,7 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>3.36</t>
+          <t>3.35</t>
         </is>
       </c>
       <c r="G24" t="n">
@@ -5281,7 +5281,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>{'EID064', 'EID084', 'EID023', 'EID006'}</t>
+          <t>{'EID084', 'EID006', 'EID064', 'EID023'}</t>
         </is>
       </c>
       <c r="E25" t="n">
@@ -5482,7 +5482,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>{'EID095', 'EID021', 'EID017', 'EID035'}</t>
+          <t>{'EID017', 'EID095', 'EID021', 'EID035'}</t>
         </is>
       </c>
       <c r="E26" t="n">
@@ -5683,7 +5683,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>{'EID004', 'EID024', 'EID002', 'EID013'}</t>
+          <t>{'EID013', 'EID002', 'EID024', 'EID004'}</t>
         </is>
       </c>
       <c r="E27" t="n">
